--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138050.1678782427</v>
+        <v>23842152.4399862</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>138050.1678782427</v>
+        <v>23842152.4399862</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74636.26971910561</v>
+        <v>9352932.248317186</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74636.26971910561</v>
+        <v>9352932.248317186</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608080013.973476</v>
+        <v>54826679.04961172</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12102.18373520701</v>
+        <v>1168421.48167849</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24108.96546218658</v>
+        <v>2317857.963719717</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36115.74718916612</v>
+        <v>3467294.445760943</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49931.69454970268</v>
+        <v>4415868.831348918</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61741.98664714479</v>
+        <v>5549397.24131833</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73692.81570097225</v>
+        <v>6706744.988664589</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>85643.64475479971</v>
+        <v>7864092.736010846</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>97594.47380862717</v>
+        <v>9021440.4833571</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>111340.4359575804</v>
+        <v>9978499.201640064</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>122766.5684140669</v>
+        <v>11153985.73509308</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>134363.1378269389</v>
+        <v>12359435.14592294</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>145959.7072398108</v>
+        <v>13564884.5567528</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>157556.2766526828</v>
+        <v>14770333.96758266</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>171301.7355572977</v>
+        <v>15738151.34052595</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>191822.6459587805</v>
+        <v>16034554.4687745</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
